--- a/data_source.xlsx
+++ b/data_source.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hasan Can Demirci\Desktop\R_Orta_Seviye_Egitim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hasan Can Demirci\Desktop\R-Orta-Seviye-Plotlar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F0FFE3-A8B9-4176-80DD-7F7C95C9D085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51337C6D-368A-4314-922E-807DAEA546EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="line1" sheetId="2" r:id="rId1"/>
     <sheet name="line2" sheetId="3" r:id="rId2"/>
     <sheet name="histogram" sheetId="1" r:id="rId3"/>
     <sheet name="Venn" sheetId="4" r:id="rId4"/>
+    <sheet name="BoxPlot" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Ali</t>
   </si>
@@ -103,6 +104,21 @@
   </si>
   <si>
     <t>Asli</t>
+  </si>
+  <si>
+    <t>A_Spor</t>
+  </si>
+  <si>
+    <t>B_Spor</t>
+  </si>
+  <si>
+    <t>C_Spor</t>
+  </si>
+  <si>
+    <t>D_Spor</t>
+  </si>
+  <si>
+    <t>E_Spor</t>
   </si>
 </sst>
 </file>
@@ -905,7 +921,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -995,4 +1011,209 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE570C4-16CE-4C7A-AD6F-EF96056D1E8F}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>56</v>
+      </c>
+      <c r="D4">
+        <v>42</v>
+      </c>
+      <c r="E4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>52</v>
+      </c>
+      <c r="D6">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>45</v>
+      </c>
+      <c r="C7">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>65</v>
+      </c>
+      <c r="E7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>80</v>
+      </c>
+      <c r="E8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>74</v>
+      </c>
+      <c r="E9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>53</v>
+      </c>
+      <c r="C10">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>42</v>
+      </c>
+      <c r="E10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>51</v>
+      </c>
+      <c r="D11">
+        <v>53</v>
+      </c>
+      <c r="E11">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>